--- a/BASE_REPAIR.xlsx
+++ b/BASE_REPAIR.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t xml:space="preserve">Produit</t>
   </si>
@@ -95,6 +95,48 @@
   </si>
   <si>
     <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHPS558006-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164189200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHPS332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO C 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHPS545B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162903009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONDE 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M22 IN CORTO</t>
   </si>
 </sst>
 </file>
@@ -104,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,6 +168,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,8 +220,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -192,112 +250,181 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="32.65"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
